--- a/BreakerData.xlsx
+++ b/BreakerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\GestionActivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD9E6BC-F684-4734-B303-C8DF974AF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C20E75-F532-4333-BA17-7D965224785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3390" windowWidth="28680" windowHeight="15480" xr2:uid="{E445C30E-6E28-478C-9C8D-BF038E345991}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="28680" windowHeight="15480" xr2:uid="{E445C30E-6E28-478C-9C8D-BF038E345991}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>General</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Verificación de erosión de contactos</t>
   </si>
   <si>
-    <t>Prueba de tiempo de disparo</t>
-  </si>
-  <si>
     <t>Mantenimiento</t>
   </si>
   <si>
@@ -162,6 +159,36 @@
   </si>
   <si>
     <t>FLUARC - 0492FG2</t>
+  </si>
+  <si>
+    <t>Vacio</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t>Subestación school house</t>
+  </si>
+  <si>
+    <t>Subestación Bight</t>
+  </si>
+  <si>
+    <t>Buen estado</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Sin fugas</t>
+  </si>
+  <si>
+    <t>Sin erosión</t>
+  </si>
+  <si>
+    <t>Prueba de tiempo de disparo (ciclos)</t>
   </si>
 </sst>
 </file>
@@ -197,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,15 +545,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,6 +622,12 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -672,6 +706,12 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -756,6 +796,12 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -784,6 +830,12 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -812,6 +864,12 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -823,10 +881,16 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -834,13 +898,19 @@
       <c r="C23" t="s">
         <v>33</v>
       </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>44619</v>
@@ -851,10 +921,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
